--- a/biology/Botanique/Moraceae/Moraceae.xlsx
+++ b/biology/Botanique/Moraceae/Moraceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Moraceae (les Moracées) sont une famille de plantes à fleurs de l'ordre des Rosales qui comprend près de 1 400 espèces réparties en une quarantaine de genres. Les deux genres de la famille comptant le plus grand nombre d'espèces sont Ficus et Dorstenia[2]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Moraceae (les Moracées) sont une famille de plantes à fleurs de l'ordre des Rosales qui comprend près de 1 400 espèces réparties en une quarantaine de genres. Les deux genres de la famille comptant le plus grand nombre d'espèces sont Ficus et Dorstenia. 
 Parmi les plus connues, citons le figuier, le banian, le mûrier blanc dont se nourrit le ver à soie, le mûrier à papier, l’arbre à pain ou l’oranger des Osages.
 </t>
         </is>
@@ -512,9 +524,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom vient du genre type Morus, nom latin du mûrier noir, Morus nigra, dérivé du grec ancien μορον / moron[3], mûre noire (fruit du murier) et/ou fruit de la ronce Rubus (Rosaceae). L'espagnol  mora est utilisé pour nommer indifféremment les fruits des deux plantes, ce qui peut susciter une certaine confusion.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vient du genre type Morus, nom latin du mûrier noir, Morus nigra, dérivé du grec ancien μορον / moron, mûre noire (fruit du murier) et/ou fruit de la ronce Rubus (Rosaceae). L'espagnol  mora est utilisé pour nommer indifféremment les fruits des deux plantes, ce qui peut susciter une certaine confusion.
 </t>
         </is>
       </c>
@@ -543,10 +557,12 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En classification classique de Cronquist (1981)[4], la famille des Moraceae est assignée à l'ordre des Urticales.
-La classification phylogénétique APG II (2003)[5] ayant abandonné l'ordre des Urticales, toutes les plantes de cet ordre, dont les Moracées, sont assignées à l'ordre Rosales.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En classification classique de Cronquist (1981), la famille des Moraceae est assignée à l'ordre des Urticales.
+La classification phylogénétique APG II (2003) ayant abandonné l'ordre des Urticales, toutes les plantes de cet ordre, dont les Moracées, sont assignées à l'ordre Rosales.
 </t>
         </is>
       </c>
@@ -575,18 +591,89 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Moracées se présentent le plus souvent sous la forme d’arbres ou d’arbustes, mais on peut aussi rencontrer des lianes ou même des plantes herbacées. La synapomorphie de cette famille est la présence de latex dans les tissus (parenchyme ou collenchyme). Le carpelle est le plus souvent double (l’un peut présenter une forme réduite), les fleurs et les fruits sont le plus souvent composés.
-Synonymes
-Selon BioLib                    (6 juillet 2019)[6] :
-Artocarpaceae Bercht. &amp; J. Presl[7]
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Moraceae</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Moraceae</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon BioLib                    (6 juillet 2019) :
+Artocarpaceae Bercht. &amp; J. Presl
 Artocarpaceae Dumortier
 Dorsteniaceae Chevalier
-Ficaceae Bercht. &amp; J. Presl[7]
-Ficaceae Dumortier
-Liste des genres
-Selon World Flora Online (WFO)       (26 janvier 2022)[8] :
+Ficaceae Bercht. &amp; J. Presl
+Ficaceae Dumortier</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Moraceae</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Moraceae</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Liste des genres</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Flora Online (WFO)       (26 janvier 2022) :
 Antiaris Lesch.
 Antiaropsis K. Schum.
 Artocarpus J.R. Forst. &amp; G. Forst.
@@ -626,7 +713,7 @@
 Trymatococcus Poepp. &amp; Endl.
 Utsetela Pellegr.
 Vanieria 
-Selon GBIF       (26 janvier 2022)[9] :
+Selon GBIF       (26 janvier 2022) :
 Afromorus (A.Chev. ex J.-F.Leroy) E.M.Gardner
 Albradia D.Dietr.
 Allaeanthus Thwaites
@@ -723,7 +810,7 @@
 Trymatococcus Poepp. &amp; Endl.
 Utsetela Pellegr.
 hespera Wieland, 1908
-Selon Angiosperm Phylogeny Website                        (31 mai 2010)[10] :
+Selon Angiosperm Phylogeny Website                        (31 mai 2010) :
 Antiaris
 Antiaropsis
 Artocarpus
@@ -771,33 +858,35 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Moraceae</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Moraceae</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Phylogénie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Des études de phylogénétique moléculaire récentes[11],[12],[13],[14]  ont permis d'établir le cladogramme ci-après qui indique les positions relatives des tribus, sous-tribus et genres de Moraceae :
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Des études de phylogénétique moléculaire récentes  ont permis d'établir le cladogramme ci-après qui indique les positions relatives des tribus, sous-tribus et genres de Moraceae :
 </t>
         </is>
       </c>
